--- a/Reporte diario de ausentimos no justificados.xlsx
+++ b/Reporte diario de ausentimos no justificados.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EDU\Desktop\EDU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EDU\Desktop\EDU-Informacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -35,15 +35,6 @@
     <t>NORBEY LEON GUZMAN BRAN</t>
   </si>
   <si>
-    <t>JOHAN ANDRES VELASQUEZ PINO</t>
-  </si>
-  <si>
-    <t>MARIA CAMILA ROJAS ROMAN</t>
-  </si>
-  <si>
-    <t>JESUS JOVANNY GARCIA LOAIZA</t>
-  </si>
-  <si>
     <t>CEDULA</t>
   </si>
   <si>
@@ -51,13 +42,76 @@
   </si>
   <si>
     <t>CUANTOS REPORTES TIENE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAIME ALBERTO QUICENO MARTINEZ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARIBEL STELLA AGUINAGA JEREZ </t>
+  </si>
+  <si>
+    <t>JHON JANDER GUTIERRES MORENO</t>
+  </si>
+  <si>
+    <t>2225102 - 3006504610</t>
+  </si>
+  <si>
+    <t>YURLEDIS TUBERQUIA</t>
+  </si>
+  <si>
+    <t>JAVIER ANTONIO POSADA VERGARA</t>
+  </si>
+  <si>
+    <t>DUBER ALEXANDER RENDON BERMUDEZ</t>
+  </si>
+  <si>
+    <t>LUIS GONZALO BONLLA PEREA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YONIS ANTONIO MORELO </t>
+  </si>
+  <si>
+    <t>LUIS HORACIO SANCHEZ MONTOYA</t>
+  </si>
+  <si>
+    <t>JHON JAIRO VELEZ JIMENEZ</t>
+  </si>
+  <si>
+    <t>2692742 - 3134060724</t>
+  </si>
+  <si>
+    <t>CONTESTO</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>SEBASTIAN ANDRES LONDOÑO QUICENO</t>
+  </si>
+  <si>
+    <t>2263836 - 3116562926</t>
+  </si>
+  <si>
+    <t>3205885282 - 2222586</t>
+  </si>
+  <si>
+    <t>AUGUSTO ANTONIO MUÑOZ MONTOYA</t>
+  </si>
+  <si>
+    <t>3206772335- 2694810</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>REPORTO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,17 +122,26 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -89,6 +152,18 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF33CCCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -119,26 +194,45 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,84 +513,339 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="A1:E5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="17"/>
+      <c r="H1" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>42296</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6">
+        <v>71770453</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3217918179</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>42296</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="C3" s="11">
+        <v>1017152117</v>
+      </c>
+      <c r="D3" s="12">
+        <v>3044041317</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>42296</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="1" t="s">
+      <c r="C4" s="11">
+        <v>1147935130</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>42296</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="14">
+        <v>1146440124</v>
+      </c>
+      <c r="D5" s="14">
+        <v>3006230769</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>42296</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="6">
+        <v>808048270</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3138359079</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>42296</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1017219340</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2261133</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>42296</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="14">
+        <v>71333617</v>
+      </c>
+      <c r="D8" s="9">
+        <v>3137529001</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>42296</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="6">
+        <v>98612490</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3147271745</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>42296</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="6">
+        <v>98478334</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3148957951</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>42296</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="11">
+        <v>1000659106</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>42296</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1000210083</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>42296</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5">
-        <v>3205885282</v>
-      </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="3">
-        <v>2221490</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="3">
-        <v>3206669058</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="3">
-        <v>3104114072</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C13" s="6">
+        <v>71376469</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>42296</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="6">
+        <v>3411308</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>42296</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="14">
+        <v>71333617</v>
+      </c>
+      <c r="D15" s="9">
+        <v>3137529001</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="H15" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Reporte diario de ausentimos no justificados.xlsx
+++ b/Reporte diario de ausentimos no justificados.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7680"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7680" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="19 10 2015" sheetId="1" r:id="rId1"/>
+    <sheet name="20 10 2015" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -41,9 +42,6 @@
     <t>FECHA DEL AUSENTISMO</t>
   </si>
   <si>
-    <t>CUANTOS REPORTES TIENE</t>
-  </si>
-  <si>
     <t xml:space="preserve">JAIME ALBERTO QUICENO MARTINEZ </t>
   </si>
   <si>
@@ -80,12 +78,6 @@
     <t>2692742 - 3134060724</t>
   </si>
   <si>
-    <t>CONTESTO</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>SEBASTIAN ANDRES LONDOÑO QUICENO</t>
   </si>
   <si>
@@ -105,13 +97,22 @@
   </si>
   <si>
     <t>REPORTO</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>DEIBE EDITH GIRALDO QUICENO</t>
+  </si>
+  <si>
+    <t>HUGO ALEXANDER AYALA RESTREPO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +140,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -194,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -210,7 +217,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -232,7 +238,36 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,339 +548,399 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A2:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" customWidth="1"/>
-    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="2" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="D2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="G2" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>42296</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="E3" s="22">
+        <v>71770453</v>
+      </c>
+      <c r="F3" s="2">
+        <v>3217918179</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="17">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>42296</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="23">
+        <v>1017152117</v>
+      </c>
+      <c r="F4" s="11">
+        <v>3044041317</v>
+      </c>
+      <c r="G4" s="20"/>
+    </row>
+    <row r="5" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="17">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>42296</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="23">
+        <v>1147935130</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="20"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="17">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5">
+        <v>42296</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="24">
+        <v>1146440124</v>
+      </c>
+      <c r="F6" s="13">
+        <v>3006230769</v>
+      </c>
+      <c r="G6" s="20"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="17">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5">
+        <v>42296</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="22">
+        <v>808048270</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3138359079</v>
+      </c>
+      <c r="G7" s="20"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="17">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5">
+        <v>42296</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="22">
+        <v>1017219340</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2261133</v>
+      </c>
+      <c r="G8" s="20"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="17">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5">
+        <v>42296</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="24">
+        <v>71333617</v>
+      </c>
+      <c r="F9" s="8">
+        <v>3137529001</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="17">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5">
+        <v>42296</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="22">
+        <v>98612490</v>
+      </c>
+      <c r="F10" s="2">
+        <v>3147271745</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="17">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5">
+        <v>42296</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="22">
+        <v>98478334</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3148957951</v>
+      </c>
+      <c r="G11" s="20"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="17">
+        <v>10</v>
+      </c>
+      <c r="C12" s="5">
+        <v>42296</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="23">
+        <v>1000659106</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="20"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="17">
+        <v>11</v>
+      </c>
+      <c r="C13" s="5">
+        <v>42296</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="22">
+        <v>1000210083</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>42296</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="6">
-        <v>71770453</v>
-      </c>
-      <c r="D2" s="2">
-        <v>3217918179</v>
-      </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8" t="s">
+      <c r="G13" s="20"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="17">
+        <v>12</v>
+      </c>
+      <c r="C14" s="5">
+        <v>42296</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="22">
+        <v>71376469</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>42296</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="11">
-        <v>1017152117</v>
-      </c>
-      <c r="D3" s="12">
-        <v>3044041317</v>
-      </c>
-      <c r="E3" s="7">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>42296</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="11">
-        <v>1147935130</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="7">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>42296</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="14">
-        <v>1146440124</v>
-      </c>
-      <c r="D5" s="14">
-        <v>3006230769</v>
-      </c>
-      <c r="E5" s="7">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>42296</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="6">
-        <v>808048270</v>
-      </c>
-      <c r="D6" s="2">
-        <v>3138359079</v>
-      </c>
-      <c r="E6" s="7">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>42296</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="G14" s="20"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="17">
+        <v>13</v>
+      </c>
+      <c r="C15" s="5">
+        <v>42296</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="22">
+        <v>3411308</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="20"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="17">
+        <v>14</v>
+      </c>
+      <c r="C16" s="5">
+        <v>42296</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="6">
-        <v>1017219340</v>
-      </c>
-      <c r="D7" s="2">
-        <v>2261133</v>
-      </c>
-      <c r="E7" s="7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>42296</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="14">
+      <c r="E16" s="24">
         <v>71333617</v>
       </c>
-      <c r="D8" s="9">
+      <c r="F16" s="8">
         <v>3137529001</v>
       </c>
-      <c r="E8" s="7">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>42296</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="6">
-        <v>98612490</v>
-      </c>
-      <c r="D9" s="2">
-        <v>3147271745</v>
-      </c>
-      <c r="E9" s="7">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>42296</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="6">
-        <v>98478334</v>
-      </c>
-      <c r="D10" s="2">
-        <v>3148957951</v>
-      </c>
-      <c r="E10" s="7">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>42296</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="11">
-        <v>1000659106</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="7">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>42296</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="6">
-        <v>1000210083</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="7">
-        <v>1</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>42296</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="6">
-        <v>71376469</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="7">
-        <v>1</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>42296</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="6">
-        <v>3411308</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="7">
-        <v>1</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>42296</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="14">
-        <v>71333617</v>
-      </c>
-      <c r="D15" s="9">
-        <v>3137529001</v>
-      </c>
-      <c r="E15" s="7">
-        <v>1</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="H15" s="1"/>
+      <c r="G16" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="41.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>42297</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="10">
+        <v>1000659106</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="8">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>42297</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="6">
+        <v>3593771</v>
+      </c>
+      <c r="F4" s="2">
+        <v>3117819595</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="8">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>42297</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="13">
+        <v>66780141</v>
+      </c>
+      <c r="F5" s="13">
+        <v>3207808428</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Reporte diario de ausentimos no justificados.xlsx
+++ b/Reporte diario de ausentimos no justificados.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7680" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="19 10 2015" sheetId="1" r:id="rId1"/>
     <sheet name="20 10 2015" sheetId="2" r:id="rId2"/>
+    <sheet name="21 10 2015" sheetId="3" r:id="rId3"/>
+    <sheet name="22 10 2015" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -106,13 +108,37 @@
   </si>
   <si>
     <t>HUGO ALEXANDER AYALA RESTREPO</t>
+  </si>
+  <si>
+    <t>DIEGO MARTINEZ LOPERA</t>
+  </si>
+  <si>
+    <t>JEFERSON COLORADO MENDOZA</t>
+  </si>
+  <si>
+    <t>YULY MARIA ZUÑIGA</t>
+  </si>
+  <si>
+    <t>JAIDER MANUEL MONTES GUERRA</t>
+  </si>
+  <si>
+    <t>ISRAEL PEÑA AVENDAÑO</t>
+  </si>
+  <si>
+    <t>JUAN DAVID LOPEZ QUINTERO</t>
+  </si>
+  <si>
+    <t>PORTERIA</t>
+  </si>
+  <si>
+    <t>FALTO LUNES Y MARTES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,8 +173,17 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibre"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibre"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -173,8 +208,20 @@
         <bgColor rgb="FF33CCCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF33CCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -197,11 +244,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -268,6 +328,29 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,13 +631,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G16"/>
+  <dimension ref="A2:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="3.85546875" style="3" customWidth="1"/>
@@ -563,9 +646,10 @@
     <col min="5" max="5" width="13.28515625" style="21" customWidth="1"/>
     <col min="6" max="6" width="25.140625" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="18"/>
+    <col min="8" max="8" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" s="7" customFormat="1">
       <c r="B2" s="16" t="s">
         <v>24</v>
       </c>
@@ -585,7 +669,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8">
       <c r="B3" s="8">
         <v>1</v>
       </c>
@@ -605,7 +689,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" ht="17.25" customHeight="1">
       <c r="B4" s="17">
         <v>2</v>
       </c>
@@ -623,7 +707,7 @@
       </c>
       <c r="G4" s="20"/>
     </row>
-    <row r="5" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="18.75" customHeight="1">
       <c r="B5" s="17">
         <v>3</v>
       </c>
@@ -641,7 +725,7 @@
       </c>
       <c r="G5" s="20"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8">
       <c r="B6" s="17">
         <v>4</v>
       </c>
@@ -659,7 +743,7 @@
       </c>
       <c r="G6" s="20"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8">
       <c r="B7" s="17">
         <v>5</v>
       </c>
@@ -677,7 +761,7 @@
       </c>
       <c r="G7" s="20"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8">
       <c r="B8" s="17">
         <v>6</v>
       </c>
@@ -695,7 +779,7 @@
       </c>
       <c r="G8" s="20"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8">
       <c r="B9" s="17">
         <v>7</v>
       </c>
@@ -715,7 +799,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8">
       <c r="B10" s="17">
         <v>8</v>
       </c>
@@ -735,7 +819,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8">
       <c r="B11" s="17">
         <v>9</v>
       </c>
@@ -753,25 +837,28 @@
       </c>
       <c r="G11" s="20"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="17">
+    <row r="12" spans="2:8">
+      <c r="B12" s="31">
         <v>10</v>
       </c>
-      <c r="C12" s="5">
-        <v>42296</v>
-      </c>
-      <c r="D12" s="11" t="s">
+      <c r="C12" s="32">
+        <v>42296</v>
+      </c>
+      <c r="D12" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="34">
         <v>1000659106</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="20"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G12" s="35"/>
+      <c r="H12" s="36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
       <c r="B13" s="17">
         <v>11</v>
       </c>
@@ -789,7 +876,7 @@
       </c>
       <c r="G13" s="20"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8">
       <c r="B14" s="17">
         <v>12</v>
       </c>
@@ -807,7 +894,7 @@
       </c>
       <c r="G14" s="20"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8">
       <c r="B15" s="17">
         <v>13</v>
       </c>
@@ -825,7 +912,7 @@
       </c>
       <c r="G15" s="20"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8">
       <c r="B16" s="17">
         <v>14</v>
       </c>
@@ -853,11 +940,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" customWidth="1"/>
@@ -866,7 +953,7 @@
     <col min="6" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7">
       <c r="B2" s="16" t="s">
         <v>24</v>
       </c>
@@ -886,7 +973,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7">
       <c r="B3" s="8">
         <v>1</v>
       </c>
@@ -904,7 +991,7 @@
       </c>
       <c r="G3" s="19"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7">
       <c r="B4" s="8">
         <v>2</v>
       </c>
@@ -922,7 +1009,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7">
       <c r="B5" s="8">
         <v>3</v>
       </c>
@@ -939,6 +1026,219 @@
         <v>3207808428</v>
       </c>
       <c r="G5" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="3.28515625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8">
+      <c r="B2" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="19">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>42298</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="13">
+        <v>1038803676</v>
+      </c>
+      <c r="F3" s="13">
+        <v>2916523</v>
+      </c>
+      <c r="G3" s="19"/>
+      <c r="H3" s="28">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="19">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>42298</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="13">
+        <v>1036654197</v>
+      </c>
+      <c r="F4" s="13">
+        <v>3217384090</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="28">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="19">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>42298</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="6">
+        <v>35891489</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3147362533</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="29">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="20">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5">
+        <v>42298</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="6">
+        <v>70530277</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3136557601</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="30">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="20">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5">
+        <v>42298</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="10">
+        <v>7487839</v>
+      </c>
+      <c r="F7" s="11">
+        <v>3106269692</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="20">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5">
+        <v>42298</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1017123021</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2266595</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="30">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8">
+      <c r="B2" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Reporte diario de ausentimos no justificados.xlsx
+++ b/Reporte diario de ausentimos no justificados.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7680"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7680" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="19 10 2015" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -83,9 +83,6 @@
     <t>SEBASTIAN ANDRES LONDOÑO QUICENO</t>
   </si>
   <si>
-    <t>2263836 - 3116562926</t>
-  </si>
-  <si>
     <t>3205885282 - 2222586</t>
   </si>
   <si>
@@ -132,6 +129,9 @@
   </si>
   <si>
     <t>FALTO LUNES Y MARTES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                     </t>
   </si>
 </sst>
 </file>
@@ -183,7 +183,7 @@
       <name val="Calibre"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,18 +205,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor rgb="FF33CCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FF33CCCC"/>
       </patternFill>
     </fill>
@@ -261,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -335,22 +323,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -633,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -644,14 +620,14 @@
     <col min="3" max="3" width="22.85546875" style="3" customWidth="1"/>
     <col min="4" max="4" width="32.140625" style="4" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" style="21" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="18"/>
     <col min="8" max="8" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" s="7" customFormat="1">
+    <row r="2" spans="1:8" s="7" customFormat="1">
       <c r="B2" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>4</v>
@@ -666,10 +642,10 @@
         <v>1</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="B3" s="8">
         <v>1</v>
       </c>
@@ -686,10 +662,10 @@
         <v>3217918179</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="17.25" customHeight="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17.25" customHeight="1">
       <c r="B4" s="17">
         <v>2</v>
       </c>
@@ -707,7 +683,7 @@
       </c>
       <c r="G4" s="20"/>
     </row>
-    <row r="5" spans="2:8" ht="18.75" customHeight="1">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1">
       <c r="B5" s="17">
         <v>3</v>
       </c>
@@ -725,7 +701,7 @@
       </c>
       <c r="G5" s="20"/>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="1:8">
       <c r="B6" s="17">
         <v>4</v>
       </c>
@@ -743,7 +719,7 @@
       </c>
       <c r="G6" s="20"/>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="1:8">
       <c r="B7" s="17">
         <v>5</v>
       </c>
@@ -761,7 +737,7 @@
       </c>
       <c r="G7" s="20"/>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="1:8">
       <c r="B8" s="17">
         <v>6</v>
       </c>
@@ -779,7 +755,7 @@
       </c>
       <c r="G8" s="20"/>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="1:8">
       <c r="B9" s="17">
         <v>7</v>
       </c>
@@ -796,10 +772,10 @@
         <v>3137529001</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="B10" s="17">
         <v>8</v>
       </c>
@@ -816,10 +792,10 @@
         <v>3147271745</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="B11" s="17">
         <v>9</v>
       </c>
@@ -837,28 +813,31 @@
       </c>
       <c r="G11" s="20"/>
     </row>
-    <row r="12" spans="2:8">
-      <c r="B12" s="31">
+    <row r="12" spans="1:8" s="7" customFormat="1">
+      <c r="A12" s="32"/>
+      <c r="B12" s="8">
         <v>10</v>
       </c>
-      <c r="C12" s="32">
-        <v>42296</v>
-      </c>
-      <c r="D12" s="33" t="s">
+      <c r="C12" s="5">
+        <v>42296</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="23">
         <v>1000659106</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="35"/>
-      <c r="H12" s="36" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8">
+      <c r="G12" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="B13" s="17">
         <v>11</v>
       </c>
@@ -872,11 +851,11 @@
         <v>1000210083</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="G13" s="20"/>
     </row>
-    <row r="14" spans="2:8">
+    <row r="14" spans="1:8">
       <c r="B14" s="17">
         <v>12</v>
       </c>
@@ -890,11 +869,11 @@
         <v>71376469</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G14" s="20"/>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="1:8">
       <c r="B15" s="17">
         <v>13</v>
       </c>
@@ -902,17 +881,17 @@
         <v>42296</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E15" s="22">
         <v>3411308</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G15" s="20"/>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="1:8">
       <c r="B16" s="17">
         <v>14</v>
       </c>
@@ -938,15 +917,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G5"/>
+  <dimension ref="B2:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="3"/>
     <col min="3" max="3" width="22.42578125" customWidth="1"/>
     <col min="4" max="4" width="41.85546875" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" customWidth="1"/>
@@ -955,7 +935,7 @@
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>4</v>
@@ -970,7 +950,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="2:7">
@@ -999,7 +979,7 @@
         <v>42297</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="6">
         <v>3593771</v>
@@ -1017,7 +997,7 @@
         <v>42297</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="13">
         <v>66780141</v>
@@ -1026,6 +1006,26 @@
         <v>3207808428</v>
       </c>
       <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="17">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5">
+        <v>42297</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="23">
+        <v>1000659106</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1050,7 +1050,7 @@
   <sheetData>
     <row r="2" spans="2:8">
       <c r="B2" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>4</v>
@@ -1065,10 +1065,10 @@
         <v>1</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="2:8">
@@ -1079,7 +1079,7 @@
         <v>42298</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="13">
         <v>1038803676</v>
@@ -1100,7 +1100,7 @@
         <v>42298</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" s="13">
         <v>1036654197</v>
@@ -1121,7 +1121,7 @@
         <v>42298</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" s="6">
         <v>35891489</v>
@@ -1142,7 +1142,7 @@
         <v>42298</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" s="6">
         <v>70530277</v>
@@ -1163,7 +1163,7 @@
         <v>42298</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="10">
         <v>7487839</v>
@@ -1184,7 +1184,7 @@
         <v>42298</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="6">
         <v>1017123021</v>
@@ -1207,7 +1207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1219,7 +1219,7 @@
   <sheetData>
     <row r="2" spans="2:8">
       <c r="B2" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>4</v>
@@ -1234,10 +1234,10 @@
         <v>1</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Reporte diario de ausentimos no justificados.xlsx
+++ b/Reporte diario de ausentimos no justificados.xlsx
@@ -15,7 +15,7 @@
     <sheet name="19 10 2015" sheetId="1" r:id="rId1"/>
     <sheet name="20 10 2015" sheetId="2" r:id="rId2"/>
     <sheet name="21 10 2015" sheetId="3" r:id="rId3"/>
-    <sheet name="22 10 2015" sheetId="4" r:id="rId4"/>
+    <sheet name="23 10 2015" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -132,13 +132,25 @@
   </si>
   <si>
     <t xml:space="preserve">                                                     </t>
+  </si>
+  <si>
+    <t>CHRISTIAN ESTIVEN VANEGAS BEDOYA</t>
+  </si>
+  <si>
+    <t>JOHAN ARTURO MEJIA ZABALA</t>
+  </si>
+  <si>
+    <t>23/10/2015 - 23/10/2015</t>
+  </si>
+  <si>
+    <t>ELVIS MAURICIO SEPULVEDA DIAZ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,6 +193,12 @@
     <font>
       <sz val="10"/>
       <name val="Calibre"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -249,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -327,6 +345,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -610,7 +638,7 @@
   <dimension ref="A2:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -920,7 +948,7 @@
   <dimension ref="B2:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1037,7 +1065,7 @@
   <dimension ref="B2:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H2"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1087,7 +1115,9 @@
       <c r="F3" s="13">
         <v>2916523</v>
       </c>
-      <c r="G3" s="19"/>
+      <c r="G3" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="H3" s="28">
         <v>254</v>
       </c>
@@ -1205,32 +1235,34 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H2"/>
+  <dimension ref="B2:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="21" customWidth="1"/>
     <col min="4" max="4" width="31.42578125" customWidth="1"/>
+    <col min="5" max="6" width="11.42578125" style="21"/>
+    <col min="7" max="7" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
       <c r="B2" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="35" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="33" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="14" t="s">
@@ -1238,6 +1270,65 @@
       </c>
       <c r="H2" s="27" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="31">
+        <v>1</v>
+      </c>
+      <c r="C3" s="34">
+        <v>42300</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="10">
+        <v>1128431809</v>
+      </c>
+      <c r="F3" s="11">
+        <v>2227110</v>
+      </c>
+      <c r="G3" s="31"/>
+      <c r="H3" s="36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="1"/>
+      <c r="C4" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1000398869</v>
+      </c>
+      <c r="F4" s="2">
+        <v>3226461195</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="36">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="1"/>
+      <c r="C5" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1037612050</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3013753233</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1">
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/Reporte diario de ausentimos no justificados.xlsx
+++ b/Reporte diario de ausentimos no justificados.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7680"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7680" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="27 10 2015" sheetId="4" r:id="rId1"/>
+    <sheet name="30 10 2015" sheetId="5" r:id="rId2"/>
+    <sheet name="05 06 07 11 2015" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -60,13 +62,76 @@
   </si>
   <si>
     <t>DIANA PATRICIA TORRES CORREA</t>
+  </si>
+  <si>
+    <t>JUAN ESTEBAN AGUDELO IGINIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDRO NEL PINEDA DAVID </t>
+  </si>
+  <si>
+    <t>3226664075- 3664948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUAN DAVID MUÑOZ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">REINALDO BOLIVAR </t>
+  </si>
+  <si>
+    <t>ANTONIO DE  JESUS HENAO LOPEZ</t>
+  </si>
+  <si>
+    <t>2937782 - 3148403616</t>
+  </si>
+  <si>
+    <t>JUAN ESTEBAN ANGULO RESTREPO</t>
+  </si>
+  <si>
+    <t>2226145 - 32056077398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARIBEL STELLA AGUINAGA JEREZ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/11/2015 06/11/2015 </t>
+  </si>
+  <si>
+    <t>HECTOR ELIAS ARANGO RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>3126107502 -  2691675</t>
+  </si>
+  <si>
+    <t>GUSTAVO ALONSO ANGULO</t>
+  </si>
+  <si>
+    <t>LEIDER ALONSO MANCO GRACIANO</t>
+  </si>
+  <si>
+    <t>JAIDER MANUEL MONTES GUERRA</t>
+  </si>
+  <si>
+    <t>JAIME ARLEY LOPEZ MORENO</t>
+  </si>
+  <si>
+    <t>JOHAN DAVID GALEANO GARCIA</t>
+  </si>
+  <si>
+    <t>JEFERSON COLORADO MENDOZA</t>
+  </si>
+  <si>
+    <t>JAIME DIAZ MORELOS</t>
+  </si>
+  <si>
+    <t>KATERINE PANESO MORENO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,8 +166,28 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,6 +198,18 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF33CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
   </fills>
@@ -143,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -175,6 +272,39 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,4 +710,448 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="8"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11">
+        <v>42307</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="16">
+        <v>1017210666</v>
+      </c>
+      <c r="F3" s="15">
+        <v>3017540186</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="17">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="9">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11">
+        <v>42307</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3">
+        <v>8336550</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="17">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="B5:H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="4" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="18">
+        <v>1</v>
+      </c>
+      <c r="C3" s="19">
+        <v>42314</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="21">
+        <v>1036650228</v>
+      </c>
+      <c r="F3" s="22">
+        <v>3017603633</v>
+      </c>
+      <c r="G3" s="18"/>
+      <c r="H3" s="23">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="18">
+        <v>2</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="24">
+        <v>71631479</v>
+      </c>
+      <c r="F4" s="20">
+        <v>3107164250</v>
+      </c>
+      <c r="G4" s="18"/>
+      <c r="H4" s="23">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="18">
+        <v>3</v>
+      </c>
+      <c r="C5" s="19">
+        <v>42313</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="21">
+        <v>70580557</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="18">
+        <v>4</v>
+      </c>
+      <c r="C6" s="19">
+        <v>42314</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="24">
+        <v>1152217418</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="18">
+        <v>5</v>
+      </c>
+      <c r="C7" s="11">
+        <v>42314</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="16">
+        <v>1017152117</v>
+      </c>
+      <c r="F7" s="15">
+        <v>3044041317</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="18">
+        <v>6</v>
+      </c>
+      <c r="C8" s="11">
+        <v>42314</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1017179323</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="18">
+        <v>7</v>
+      </c>
+      <c r="C9" s="11">
+        <v>42314</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1152217418</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="18">
+        <v>8</v>
+      </c>
+      <c r="C10" s="11">
+        <v>42314</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1017150241</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2223145</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="18">
+        <v>9</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1040351257</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3117934930</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="18">
+        <v>10</v>
+      </c>
+      <c r="C12" s="11">
+        <v>42314</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="3">
+        <v>70530277</v>
+      </c>
+      <c r="F12" s="2">
+        <v>3136557601</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="18">
+        <v>11</v>
+      </c>
+      <c r="C13" s="11">
+        <v>42314</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="3">
+        <v>71797866</v>
+      </c>
+      <c r="F13" s="2">
+        <v>3218924826</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="18">
+        <v>12</v>
+      </c>
+      <c r="C14" s="11">
+        <v>42314</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1146437307</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2268543</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="18">
+        <v>13</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1036654197</v>
+      </c>
+      <c r="F15" s="5">
+        <v>3217384090</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="18">
+        <v>14</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="5">
+        <v>70225580</v>
+      </c>
+      <c r="F16" s="5">
+        <v>3207463969</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="9"/>
+      <c r="C17" s="11">
+        <v>42314</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1128432987</v>
+      </c>
+      <c r="F17" s="27">
+        <v>3112400307</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9">
+        <v>320</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>